--- a/medicine/Enfance/Charles-Émile_Matthis/Charles-Émile_Matthis.xlsx
+++ b/medicine/Enfance/Charles-Émile_Matthis/Charles-Émile_Matthis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Matthis</t>
+          <t>Charles-Émile_Matthis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Émile Matthis, né le 24 septembre 1838 à La Walck et mort le 11 octobre 1893 à Lobsann (Bas-Rhin), est un peintre, graveur et illustrateur français, notamment pour la littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Matthis</t>
+          <t>Charles-Émile_Matthis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Émile Matthis naît le né le 24 septembre 1838 à La Walck.
-Il est l'élève de Frédéric Lix et d'Eugène Froment-Delormel[2], qui a été peintre, graveur et a travaillé pour l'éditeur Hetzel.
-Charles-Émile Matthis travaille comme lithographe dès 1863 pour l'imprimerie Wentzel de Wissembourg[3], puis comme illustrateur et graveur pour l'éditeur Pierre-Jules Hetzel ainsi que la revue Magasin d'éducation.
-Il expose des peintures au Salon de 1868 (L'Orpheline) à 1882[4]. À partir de 1871, il réalise des œuvres à motifs patriotiques, dont le tableau Strasbourg le 28 septembre 1870.
-En 1885, il participe à la première exposition internationale de blanc et noir et obtient une médaille de bronze, ainsi que Albert Robida et Gustav Wertheimer[5]
+Il est l'élève de Frédéric Lix et d'Eugène Froment-Delormel, qui a été peintre, graveur et a travaillé pour l'éditeur Hetzel.
+Charles-Émile Matthis travaille comme lithographe dès 1863 pour l'imprimerie Wentzel de Wissembourg, puis comme illustrateur et graveur pour l'éditeur Pierre-Jules Hetzel ainsi que la revue Magasin d'éducation.
+Il expose des peintures au Salon de 1868 (L'Orpheline) à 1882. À partir de 1871, il réalise des œuvres à motifs patriotiques, dont le tableau Strasbourg le 28 septembre 1870.
+En 1885, il participe à la première exposition internationale de blanc et noir et obtient une médaille de bronze, ainsi que Albert Robida et Gustav Wertheimer
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles-%C3%89mile_Matthis</t>
+          <t>Charles-Émile_Matthis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pique-Toto, la Paix et la Guerre, éditions Jouvet et Cie, 1888, gravures C.E Matthis.
 Les Deux Gaspards, 1887
